--- a/data/input/absenteeism_data_35.xlsx
+++ b/data/input/absenteeism_data_35.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4837</v>
+        <v>50574</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Luna Caldeira</t>
+          <t>Mirella Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>6871.51</v>
+        <v>10285.46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67767</v>
+        <v>38335</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alana Barbosa</t>
+          <t>Maria Julia Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,26 +519,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>4374.69</v>
+        <v>5420.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91988</v>
+        <v>82762</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Paulo Castro</t>
+          <t>Laura Costela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,118 +548,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45082</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>9521.42</v>
+        <v>6671.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12832</v>
+        <v>10962</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kamilly da Luz</t>
+          <t>Breno Ramos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>6745.04</v>
+        <v>8329.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7663</v>
+        <v>1940</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Fernanda da Mata</t>
+          <t>Ana Vitória Castro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>5563.91</v>
+        <v>3446.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25435</v>
+        <v>63501</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alana Moraes</t>
+          <t>Dr. Daniel Oliveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>7112.65</v>
+        <v>9423.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54498</v>
+        <v>34637</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Erick Novaes</t>
+          <t>Guilherme Farias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>5979.87</v>
+        <v>3171.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60944</v>
+        <v>65477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcela Campos</t>
+          <t>Emanuelly Azevedo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>9522.889999999999</v>
+        <v>3840.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13925</v>
+        <v>32332</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bruno Novaes</t>
+          <t>Calebe Martins</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>10802.35</v>
+        <v>6031.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24737</v>
+        <v>24798</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lívia Fernandes</t>
+          <t>Danilo da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>8193.15</v>
+        <v>9124.73</v>
       </c>
     </row>
   </sheetData>
